--- a/pred_ohlcv/54_21/2019-10-24 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 BSV ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>948.21559518</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -782,7 +782,7 @@
         <v>961.3346951800002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1015.03449518</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1145.71489518</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1224.20879518</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1191.11689328</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1127.69609328</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>906.28439328</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>915.64579328</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>890.11089328</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>933.91889328</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>907.32209328</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>912.61209328</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>906.33429328</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>906.33429328</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>905.58429328</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>905.88429328</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>928.57349328</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>928.57349328</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>928.81349328</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>908.77349328</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>907.39219328</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>907.39219328</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>885.56699328</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>907.7755932800001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>892.31059328</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>892.31059328</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>873.2456932800001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1667.86075907</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1574.03125907</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1549.55055907</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1549.55055907</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1549.81055907</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1543.14775907</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1546.97405907</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1435.04195907</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1386.01395907</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-2634.446624500001</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-2689.795324500001</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-2689.818424500001</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-2665.15922379</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-2653.14732379</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-2648.71502379</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-2650.67082379</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-2662.68272379</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-2663.57222379</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-2663.47222379</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-2661.065123790001</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-2661.605123790001</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-2663.19722379</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-2654.215723790001</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-2514.278491200002</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-2507.430591200001</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-2228.041749570001</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-2210.879449570001</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-2206.251449570001</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-2348.633849570001</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-2485.193249570001</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-2486.013249570001</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-2522.048949570001</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-2522.048949570001</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-2535.548949570001</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-2529.548649570001</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-2530.118649570001</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-2567.518649570001</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-2479.008649570001</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-2487.803249570001</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-2487.803249570001</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-2587.903249570001</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-2617.503831490001</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-2617.503831490001</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-2655.833431490001</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-2735.833431490001</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-2704.399231320001</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-2708.267031320001</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-2708.682231320001</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-2739.481031320001</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-2674.091931320001</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-2679.173431320001</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-2633.584631320001</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-2633.584631320001</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-2635.671731320002</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-2635.421731320002</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-2636.221731320002</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-2672.860531320002</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-2672.427231320002</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-2673.430131320002</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-2664.105831320001</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-2664.105831320001</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-2665.275531320001</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-2665.275531320001</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-2653.933731320001</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-2653.914731320001</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-2652.856831320002</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-2643.635231320002</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-2633.139631320002</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-2610.369608270002</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-2610.369608270002</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-2575.275508270002</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-2575.275508270002</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-2456.416408270002</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-2456.416408270002</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-2462.044808270002</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-2461.981808270002</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-2461.595908270001</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-2470.580508270002</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-2407.166308270002</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-2407.166308270002</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-2407.166308270002</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-2392.989008270002</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-2382.870808270002</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-2355.374935400002</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-2350.354835400002</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-2394.576935400002</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-2449.162135400002</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-2470.886635400002</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-2476.906735400002</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-2470.932768480002</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-2471.506468480002</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-2409.746768480002</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-2409.746768480002</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-2253.395185420002</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-2317.739985420002</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-2312.333185420001</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-2306.051685420001</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-2307.025885420001</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-2307.025885420001</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-2292.377485420001</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-2294.253585420001</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-2294.253585420001</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-2273.130568930002</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-2273.130568930002</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-2273.130568930002</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-2262.186168930002</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-2096.380168930002</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-1955.508668930002</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-1856.462368930002</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-1469.039974540002</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-1322.419529250002</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-1058.639606660002</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-1035.360301900002</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-1075.962001900002</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-980.831427930002</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-1086.936927930002</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-1117.450821580002</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-1204.043421580002</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-1204.043421580002</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-1203.085021580002</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-1203.085021580002</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-1078.239127620002</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-884.3377941300018</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-1114.797594130002</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-689.6537941300019</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-689.6537941300019</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-791.0611941300019</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-24 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 BSV ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>948.21559518</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -782,7 +782,7 @@
         <v>961.3346951800002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1015.03449518</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1145.71489518</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1224.20879518</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1191.11689328</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1127.69609328</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>906.28439328</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>915.64579328</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>890.11089328</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>933.91889328</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>907.32209328</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>912.61209328</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>906.33429328</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>906.33429328</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>905.58429328</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>905.88429328</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>928.57349328</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>928.57349328</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>928.81349328</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>908.77349328</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>907.39219328</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>907.39219328</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>885.56699328</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>907.7755932800001</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>892.31059328</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>892.31059328</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>873.2456932800001</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1667.86075907</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1574.03125907</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1549.55055907</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1549.55055907</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1549.81055907</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1543.14775907</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1546.97405907</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1435.04195907</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1386.01395907</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-2663.19722379</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-2654.215723790001</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-2514.278491200002</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-2507.430591200001</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-2228.041749570001</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-2210.879449570001</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-2206.251449570001</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-2348.633849570001</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-2485.193249570001</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-2486.013249570001</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-2522.048949570001</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-2522.048949570001</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-2535.548949570001</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-2529.548649570001</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-2530.118649570001</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-2567.518649570001</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-2479.008649570001</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-2487.803249570001</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-2487.803249570001</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-2587.903249570001</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-2617.503831490001</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-2617.503831490001</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-2655.833431490001</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-2735.833431490001</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-2704.399231320001</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-2708.267031320001</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-2708.682231320001</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-2739.481031320001</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-2674.091931320001</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-2679.173431320001</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-2633.584631320001</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-2633.584631320001</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-2635.671731320002</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-2635.421731320002</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-2636.221731320002</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-2672.860531320002</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-2672.427231320002</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-2673.430131320002</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-2664.105831320001</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-2664.105831320001</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-2665.275531320001</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-2665.275531320001</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-2653.933731320001</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-2653.914731320001</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-2652.856831320002</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-2643.635231320002</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-2633.139631320002</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-2610.369608270002</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-2610.369608270002</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-2575.275508270002</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-2575.275508270002</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-2456.416408270002</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-2456.416408270002</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-2462.044808270002</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-2461.981808270002</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-2461.595908270001</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-2470.580508270002</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-2407.166308270002</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-2407.166308270002</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-2407.166308270002</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-2392.989008270002</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-2382.870808270002</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-2355.374935400002</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-2350.354835400002</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-2394.576935400002</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-2449.162135400002</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-2470.886635400002</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-2476.906735400002</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-2470.932768480002</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-2471.506468480002</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-2409.746768480002</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-2409.746768480002</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-2253.395185420002</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-2317.739985420002</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-2312.333185420001</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-2306.051685420001</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-2307.025885420001</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-2307.025885420001</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-2292.377485420001</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-2294.253585420001</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-2294.253585420001</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-2273.130568930002</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-2273.130568930002</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-2273.130568930002</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-2262.186168930002</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-2096.380168930002</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-1955.508668930002</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-1856.462368930002</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-1469.039974540002</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-1322.419529250002</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-759.4496066600021</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-759.4496066600021</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-1028.318106660002</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-1129.023006660002</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-1129.023006660002</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-1058.639606660002</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-1035.360301900002</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-1075.962001900002</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-980.831427930002</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-1086.936927930002</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-1117.450821580002</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-1204.043421580002</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-1204.043421580002</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-1203.085021580002</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-1203.085021580002</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-1078.239127620002</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-884.3377941300018</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-1114.797594130002</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-689.6537941300019</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-689.6537941300019</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-791.0611941300019</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
